--- a/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_2_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/30/Output_2_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2490241.570101202</v>
+        <v>2490241.570101199</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800514</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800514</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177626</v>
+        <v>3940022.790762678</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177626</v>
+        <v>3940022.790762678</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647382362.376274</v>
+        <v>62380380.03707977</v>
       </c>
     </row>
   </sheetData>
@@ -676,10 +676,10 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F2" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150354</v>
       </c>
       <c r="G2" t="n">
-        <v>396.4956611591754</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
         <v>347.8590406130752</v>
@@ -752,7 +752,7 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E3" t="n">
-        <v>341.1383972643394</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F3" t="n">
         <v>339.6362423378769</v>
@@ -761,7 +761,7 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I3" t="n">
         <v>108.929687778141</v>
@@ -955,7 +955,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
-        <v>559.5765741183106</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U5" t="n">
         <v>648.751427201877</v>
@@ -970,7 +970,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y5" t="n">
-        <v>511.3174326828064</v>
+        <v>509.92908838983</v>
       </c>
     </row>
     <row r="6">
@@ -995,10 +995,10 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155676</v>
       </c>
       <c r="H6" t="n">
-        <v>300.284179681678</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
         <v>108.929687778141</v>
@@ -1150,13 +1150,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F8" t="n">
-        <v>403.5012844143419</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G8" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S9" t="n">
         <v>408.192915058951</v>
       </c>
       <c r="T9" t="n">
-        <v>391.1574709203184</v>
+        <v>392.6911708778912</v>
       </c>
       <c r="U9" t="n">
         <v>400.0036144771679</v>
@@ -1387,13 +1387,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F11" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844151043</v>
       </c>
       <c r="G11" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>346.4706963202984</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1383972643394</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F12" t="n">
         <v>339.6362423378769</v>
       </c>
       <c r="G12" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155671</v>
       </c>
       <c r="H12" t="n">
         <v>301.8178796392513</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767757455</v>
       </c>
       <c r="T14" t="n">
         <v>560.964918411981</v>
@@ -1678,7 +1678,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X14" t="n">
-        <v>590.89348916776</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y14" t="n">
         <v>511.3174326828064</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.95272115897164</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F17" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844151043</v>
       </c>
       <c r="G17" t="n">
         <v>397.8840054528454</v>
@@ -1915,7 +1915,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X17" t="n">
-        <v>590.89348916776</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y17" t="n">
         <v>511.3174326828064</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611599379</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4706963201676</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>342.6720972219126</v>
       </c>
       <c r="F21" t="n">
-        <v>338.1025423803034</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G21" t="n">
         <v>322.5970075731406</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S21" t="n">
         <v>408.192915058951</v>
@@ -2307,13 +2307,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>396.4956611599255</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963201553</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>165.2127885434264</v>
+        <v>67.808644398718</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,10 +2812,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G29" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3052,7 +3052,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>346.4706963208612</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767772591</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3164,7 +3164,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>406.6592151013773</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D35" t="n">
-        <v>408.9508114476357</v>
+        <v>410.3391557398498</v>
       </c>
       <c r="E35" t="n">
         <v>404.3632896068686</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767771916</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3401,7 +3401,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S36" t="n">
-        <v>406.6592151013773</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3492,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767771916</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
@@ -3666,70 +3666,70 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H41" t="n">
         <v>347.8590406130752</v>
@@ -3799,7 +3799,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T41" t="n">
-        <v>560.964918411981</v>
+        <v>559.5765741205183</v>
       </c>
       <c r="U41" t="n">
         <v>648.751427201877</v>
@@ -3839,7 +3839,7 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G42" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155672</v>
       </c>
       <c r="H42" t="n">
         <v>301.8178796392513</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S42" t="n">
         <v>408.192915058951</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>480.610968662598</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C44" t="n">
         <v>449.4745782429939</v>
@@ -4039,7 +4039,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U44" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088696</v>
       </c>
       <c r="V44" t="n">
         <v>629.8510241668239</v>
@@ -4070,7 +4070,7 @@
         <v>347.9376868977026</v>
       </c>
       <c r="E45" t="n">
-        <v>342.6720972219126</v>
+        <v>341.1383972643394</v>
       </c>
       <c r="F45" t="n">
         <v>339.6362423378769</v>
@@ -4079,7 +4079,7 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H45" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I45" t="n">
         <v>108.929687778141</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347545415</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622047441</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626350623</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859070958</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361335724</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3327682960213</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H2" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>140.9599999999857</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>599.7771454756378</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>1339.420289043477</v>
+        <v>1677.761866429961</v>
       </c>
       <c r="L2" t="n">
-        <v>2257.01301236006</v>
+        <v>2595.354589746545</v>
       </c>
       <c r="M2" t="n">
-        <v>3418.242061939568</v>
+        <v>3077.533789260047</v>
       </c>
       <c r="N2" t="n">
-        <v>3983.28512581224</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O2" t="n">
-        <v>4893.440008752984</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P2" t="n">
-        <v>6591.17949019778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q2" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R2" t="n">
-        <v>7047.999999999286</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625182463</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394463291</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542203</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818139</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.37407390809</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595664992</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340429834</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="3">
@@ -4391,76 +4391,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2285.562842359553</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C3" t="n">
-        <v>1920.815456050947</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D3" t="n">
-        <v>1569.363247063369</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E3" t="n">
-        <v>1224.77900740242</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F3" t="n">
-        <v>881.7120959500189</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448264</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546736</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I3" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="J3" t="n">
-        <v>558.8475295149074</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K3" t="n">
-        <v>1250.415257213064</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L3" t="n">
-        <v>2197.270784374302</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M3" t="n">
-        <v>3071.633876117161</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N3" t="n">
-        <v>4014.060204215296</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O3" t="n">
-        <v>4993.313206182034</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P3" t="n">
-        <v>5699.926775368522</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q3" t="n">
-        <v>5925.707874249701</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R3" t="n">
-        <v>5569.989306372894</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S3" t="n">
-        <v>5157.673230555772</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T3" t="n">
-        <v>4761.015482194265</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U3" t="n">
-        <v>4356.971427166823</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V3" t="n">
-        <v>3938.273783539024</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W3" t="n">
-        <v>3501.533235145258</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X3" t="n">
-        <v>3077.429457927695</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y3" t="n">
-        <v>2674.003808668973</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="4">
@@ -4470,76 +4470,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.9599999999857</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="C4" t="n">
-        <v>140.9599999999857</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="D4" t="n">
-        <v>140.9599999999857</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="E4" t="n">
-        <v>140.9599999999857</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="F4" t="n">
-        <v>140.9599999999857</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="G4" t="n">
-        <v>140.9599999999857</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="H4" t="n">
-        <v>140.9599999999857</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="I4" t="n">
-        <v>140.9599999999857</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="J4" t="n">
-        <v>440.0999956178731</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
-        <v>351.2038120028044</v>
+        <v>351.2038120028187</v>
       </c>
       <c r="R4" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="S4" t="n">
-        <v>140.9599999999857</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="T4" t="n">
-        <v>140.9599999999857</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="U4" t="n">
-        <v>140.9599999999857</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="V4" t="n">
-        <v>140.9599999999857</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="W4" t="n">
-        <v>140.9599999999857</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="X4" t="n">
-        <v>140.9599999999857</v>
+        <v>223.6648391925338</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.9599999999857</v>
+        <v>223.6648391925338</v>
       </c>
     </row>
     <row r="5">
@@ -4549,76 +4549,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2580.161715518819</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C5" t="n">
-        <v>2126.146990020845</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D5" t="n">
-        <v>1711.662994324027</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044362</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F5" t="n">
-        <v>894.2358041069763</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960213</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H5" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>216.5482970397561</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>675.3654425154082</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K5" t="n">
-        <v>1415.008586083247</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L5" t="n">
-        <v>3159.388586083071</v>
+        <v>3797.935015773448</v>
       </c>
       <c r="M5" t="n">
-        <v>3641.567785596574</v>
+        <v>4280.114215286951</v>
       </c>
       <c r="N5" t="n">
-        <v>4845.157279158907</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O5" t="n">
-        <v>5755.312162099651</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P5" t="n">
-        <v>6591.179490197064</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q5" t="n">
-        <v>7047.999999999286</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R5" t="n">
-        <v>7047.999999999286</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625182463</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.115762436695</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515608</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791543</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881495</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.511963638396</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y5" t="n">
-        <v>3067.029708403238</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="6">
@@ -4628,76 +4628,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2285.562842359553</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C6" t="n">
-        <v>1920.815456050947</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D6" t="n">
-        <v>1569.363247063369</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E6" t="n">
-        <v>1223.229815526083</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F6" t="n">
-        <v>880.1629040736823</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G6" t="n">
-        <v>554.3073408684897</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H6" t="n">
-        <v>250.9899876546736</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I6" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="J6" t="n">
-        <v>558.8475295149074</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K6" t="n">
-        <v>1250.415257213064</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L6" t="n">
-        <v>2197.270784374302</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M6" t="n">
-        <v>3071.633876117161</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N6" t="n">
-        <v>4014.060204215296</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O6" t="n">
-        <v>4993.313206182034</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P6" t="n">
-        <v>5699.926775368522</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q6" t="n">
-        <v>5925.707874249701</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R6" t="n">
-        <v>5569.989306372894</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S6" t="n">
-        <v>5157.673230555772</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T6" t="n">
-        <v>4761.015482194265</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U6" t="n">
-        <v>4356.971427166823</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V6" t="n">
-        <v>3938.273783539024</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W6" t="n">
-        <v>3501.533235145258</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X6" t="n">
-        <v>3077.429457927695</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y6" t="n">
-        <v>2674.003808668973</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="7">
@@ -4707,76 +4707,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="C7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="D7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="E7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="F7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="G7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="H7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>440.0999956178731</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q7" t="n">
-        <v>351.2038120028044</v>
+        <v>351.2038120028187</v>
       </c>
       <c r="R7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="S7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="T7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="U7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="V7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="W7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="X7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="Y7" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="8">
@@ -4786,76 +4786,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347545415</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622047441</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626350623</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859070958</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F8" t="n">
-        <v>894.2358041069763</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G8" t="n">
-        <v>492.3327682960213</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H8" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397561</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154082</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>1415.008586083247</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L8" t="n">
-        <v>3159.388586083071</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M8" t="n">
-        <v>3641.567785596574</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N8" t="n">
-        <v>4206.610849469246</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O8" t="n">
-        <v>5116.76573240999</v>
+        <v>4289.978455726764</v>
       </c>
       <c r="P8" t="n">
-        <v>5952.633060507404</v>
+        <v>5987.71793717156</v>
       </c>
       <c r="Q8" t="n">
-        <v>7019.147122846503</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R8" t="n">
-        <v>7047.999999999286</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625182463</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394463291</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542203</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818139</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.37407390809</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595664992</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340429834</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="9">
@@ -4865,76 +4865,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2287.112034235889</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C9" t="n">
-        <v>1922.364647927284</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D9" t="n">
-        <v>1570.912438939705</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E9" t="n">
-        <v>1224.77900740242</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F9" t="n">
-        <v>881.7120959500189</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G9" t="n">
-        <v>555.8565327448264</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H9" t="n">
-        <v>250.9899876546736</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I9" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="J9" t="n">
-        <v>558.8475295149074</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K9" t="n">
-        <v>1250.415257213064</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L9" t="n">
-        <v>2197.270784374302</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M9" t="n">
-        <v>3071.633876117161</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N9" t="n">
-        <v>4014.060204215296</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O9" t="n">
-        <v>4993.313206182034</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P9" t="n">
-        <v>5699.926775368522</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q9" t="n">
-        <v>5925.707874249701</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R9" t="n">
-        <v>5569.989306372894</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S9" t="n">
-        <v>5157.673230555772</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T9" t="n">
-        <v>4762.564674070602</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U9" t="n">
-        <v>4358.520619043159</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V9" t="n">
-        <v>3939.822975415361</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W9" t="n">
-        <v>3503.082427021594</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X9" t="n">
-        <v>3078.978649804031</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y9" t="n">
-        <v>2675.55300054531</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="10">
@@ -4944,76 +4944,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.6133856211595</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="C10" t="n">
-        <v>290.6133856211595</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="D10" t="n">
-        <v>290.6133856211595</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="E10" t="n">
-        <v>290.6133856211595</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="F10" t="n">
-        <v>290.6133856211595</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="G10" t="n">
-        <v>290.6133856211595</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H10" t="n">
-        <v>290.6133856211595</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I10" t="n">
-        <v>290.6133856211595</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178731</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
-        <v>457.4949902104792</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q10" t="n">
-        <v>351.2038120028044</v>
+        <v>351.2038120028187</v>
       </c>
       <c r="R10" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="S10" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="T10" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="U10" t="n">
-        <v>140.9599999999857</v>
+        <v>140.96</v>
       </c>
       <c r="V10" t="n">
-        <v>140.9599999999857</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="W10" t="n">
-        <v>140.9599999999857</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="X10" t="n">
-        <v>140.9599999999857</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.369300679018</v>
+        <v>290.6133856211738</v>
       </c>
     </row>
     <row r="11">
@@ -5023,76 +5023,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546317</v>
+        <v>2578.759347546201</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048343</v>
+        <v>2124.744622048227</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351525</v>
+        <v>1710.260626351409</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.81285907186</v>
+        <v>1301.812859071744</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361344746</v>
+        <v>894.235804106992</v>
       </c>
       <c r="G11" t="n">
-        <v>490.9304003235195</v>
+        <v>492.332768296037</v>
       </c>
       <c r="H11" t="n">
-        <v>140.9599999999857</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397561</v>
+        <v>216.5482970397719</v>
       </c>
       <c r="J11" t="n">
-        <v>1101.367131735703</v>
+        <v>675.365442515424</v>
       </c>
       <c r="K11" t="n">
-        <v>1936.671378010808</v>
+        <v>1415.008586083263</v>
       </c>
       <c r="L11" t="n">
-        <v>3681.051378010631</v>
+        <v>2332.601309399846</v>
       </c>
       <c r="M11" t="n">
-        <v>4163.230577524134</v>
+        <v>2814.780508913349</v>
       </c>
       <c r="N11" t="n">
-        <v>4728.273641396806</v>
+        <v>4465.520361049921</v>
       </c>
       <c r="O11" t="n">
-        <v>5638.42852433755</v>
+        <v>5375.675243990665</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434963</v>
+        <v>6474.295852434847</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362237185</v>
+        <v>6931.116362237069</v>
       </c>
       <c r="R11" t="n">
-        <v>7048.000000000188</v>
+        <v>7048.000000000072</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183366</v>
+        <v>6683.344625183249</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464193</v>
+        <v>6116.713394464076</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922543105</v>
+        <v>5461.408922542989</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766819041</v>
+        <v>4825.195766818924</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908993</v>
+        <v>4180.374073908876</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665894</v>
+        <v>3582.109595665777</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430736</v>
+        <v>3065.627340430619</v>
       </c>
     </row>
     <row r="12">
@@ -5102,76 +5102,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2285.562842359553</v>
+        <v>2285.562842359568</v>
       </c>
       <c r="C12" t="n">
-        <v>1920.815456050947</v>
+        <v>1920.815456050963</v>
       </c>
       <c r="D12" t="n">
-        <v>1569.363247063369</v>
+        <v>1569.363247063384</v>
       </c>
       <c r="E12" t="n">
-        <v>1224.77900740242</v>
+        <v>1223.229815526099</v>
       </c>
       <c r="F12" t="n">
-        <v>881.7120959500189</v>
+        <v>880.1629040736977</v>
       </c>
       <c r="G12" t="n">
-        <v>555.8565327448264</v>
+        <v>555.8565327448421</v>
       </c>
       <c r="H12" t="n">
-        <v>250.9899876546736</v>
+        <v>250.9899876546893</v>
       </c>
       <c r="I12" t="n">
-        <v>140.9599999999857</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J12" t="n">
-        <v>558.8475295149074</v>
+        <v>558.8475295149231</v>
       </c>
       <c r="K12" t="n">
-        <v>1250.415257213064</v>
+        <v>1250.41525721308</v>
       </c>
       <c r="L12" t="n">
-        <v>2197.270784374302</v>
+        <v>2197.270784374318</v>
       </c>
       <c r="M12" t="n">
-        <v>3071.633876117161</v>
+        <v>3071.633876117177</v>
       </c>
       <c r="N12" t="n">
-        <v>4014.060204215296</v>
+        <v>4014.060204215312</v>
       </c>
       <c r="O12" t="n">
-        <v>4993.313206182034</v>
+        <v>4993.31320618205</v>
       </c>
       <c r="P12" t="n">
-        <v>5699.926775368522</v>
+        <v>5699.926775368537</v>
       </c>
       <c r="Q12" t="n">
-        <v>5925.707874249701</v>
+        <v>5925.707874249717</v>
       </c>
       <c r="R12" t="n">
-        <v>5569.989306372894</v>
+        <v>5569.98930637291</v>
       </c>
       <c r="S12" t="n">
-        <v>5157.673230555772</v>
+        <v>5157.673230555787</v>
       </c>
       <c r="T12" t="n">
-        <v>4761.015482194265</v>
+        <v>4761.015482194281</v>
       </c>
       <c r="U12" t="n">
-        <v>4356.971427166823</v>
+        <v>4356.971427166838</v>
       </c>
       <c r="V12" t="n">
-        <v>3938.273783539024</v>
+        <v>3938.27378353904</v>
       </c>
       <c r="W12" t="n">
-        <v>3501.533235145258</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X12" t="n">
-        <v>3077.429457927695</v>
+        <v>3077.42945792771</v>
       </c>
       <c r="Y12" t="n">
-        <v>2674.003808668973</v>
+        <v>2674.003808668989</v>
       </c>
     </row>
     <row r="13">
@@ -5181,76 +5181,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>239.3480243885801</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="C13" t="n">
-        <v>239.3480243885801</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="D13" t="n">
-        <v>239.3480243885801</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="E13" t="n">
-        <v>239.3480243885801</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="F13" t="n">
-        <v>239.3480243885801</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="G13" t="n">
-        <v>239.3480243885801</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="H13" t="n">
-        <v>239.3480243885801</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I13" t="n">
-        <v>140.9599999999857</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J13" t="n">
-        <v>290.4466099966993</v>
+        <v>290.446609996715</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893053</v>
+        <v>307.841604589321</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893053</v>
+        <v>307.841604589321</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893053</v>
+        <v>307.841604589321</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893053</v>
+        <v>307.841604589321</v>
       </c>
       <c r="O13" t="n">
-        <v>239.3480243885801</v>
+        <v>307.841604589321</v>
       </c>
       <c r="P13" t="n">
-        <v>239.3480243885801</v>
+        <v>307.841604589321</v>
       </c>
       <c r="Q13" t="n">
-        <v>239.3480243885801</v>
+        <v>307.841604589321</v>
       </c>
       <c r="R13" t="n">
-        <v>239.3480243885801</v>
+        <v>307.841604589321</v>
       </c>
       <c r="S13" t="n">
-        <v>239.3480243885801</v>
+        <v>307.841604589321</v>
       </c>
       <c r="T13" t="n">
-        <v>239.3480243885801</v>
+        <v>307.841604589321</v>
       </c>
       <c r="U13" t="n">
-        <v>239.3480243885801</v>
+        <v>307.841604589321</v>
       </c>
       <c r="V13" t="n">
-        <v>239.3480243885801</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="W13" t="n">
-        <v>239.3480243885801</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="X13" t="n">
-        <v>239.3480243885801</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Y13" t="n">
-        <v>239.3480243885801</v>
+        <v>140.9600000000014</v>
       </c>
     </row>
     <row r="14">
@@ -5281,49 +5281,49 @@
         <v>140.9600000000014</v>
       </c>
       <c r="I14" t="n">
-        <v>216.5482970397719</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="J14" t="n">
-        <v>1101.367131735719</v>
+        <v>1025.778834695949</v>
       </c>
       <c r="K14" t="n">
-        <v>1841.010275303558</v>
+        <v>2475.128344611656</v>
       </c>
       <c r="L14" t="n">
-        <v>3188.24146323664</v>
+        <v>3797.935015773518</v>
       </c>
       <c r="M14" t="n">
-        <v>3670.420662750143</v>
+        <v>4280.114215287021</v>
       </c>
       <c r="N14" t="n">
-        <v>4235.463726622815</v>
+        <v>4845.157279159693</v>
       </c>
       <c r="O14" t="n">
-        <v>5145.618609563558</v>
+        <v>5755.312162100437</v>
       </c>
       <c r="P14" t="n">
-        <v>5981.485937660972</v>
+        <v>6591.17949019785</v>
       </c>
       <c r="Q14" t="n">
-        <v>7048</v>
+        <v>7048.000000000072</v>
       </c>
       <c r="R14" t="n">
-        <v>7048</v>
+        <v>7048.000000000072</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183249</v>
+        <v>6684.746993155884</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464076</v>
+        <v>6118.115762436712</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542989</v>
+        <v>5462.811290515623</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818924</v>
+        <v>4826.598134791559</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908876</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X14" t="n">
         <v>3583.511963638412</v>
@@ -5418,25 +5418,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>239.3480243885958</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="C16" t="n">
-        <v>239.3480243885958</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="D16" t="n">
-        <v>239.3480243885958</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="E16" t="n">
-        <v>239.3480243885958</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="F16" t="n">
-        <v>239.3480243885958</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="G16" t="n">
-        <v>239.3480243885958</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="H16" t="n">
-        <v>239.3480243885958</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="I16" t="n">
         <v>140.9600000000014</v>
@@ -5448,46 +5448,46 @@
         <v>307.841604589321</v>
       </c>
       <c r="L16" t="n">
-        <v>275.663904347153</v>
+        <v>307.841604589321</v>
       </c>
       <c r="M16" t="n">
-        <v>275.663904347153</v>
+        <v>307.841604589321</v>
       </c>
       <c r="N16" t="n">
-        <v>275.663904347153</v>
+        <v>307.841604589321</v>
       </c>
       <c r="O16" t="n">
-        <v>275.663904347153</v>
+        <v>307.841604589321</v>
       </c>
       <c r="P16" t="n">
-        <v>275.663904347153</v>
+        <v>307.841604589321</v>
       </c>
       <c r="Q16" t="n">
-        <v>239.3480243885958</v>
+        <v>307.841604589321</v>
       </c>
       <c r="R16" t="n">
-        <v>239.3480243885958</v>
+        <v>307.841604589321</v>
       </c>
       <c r="S16" t="n">
-        <v>239.3480243885958</v>
+        <v>307.841604589321</v>
       </c>
       <c r="T16" t="n">
-        <v>239.3480243885958</v>
+        <v>307.841604589321</v>
       </c>
       <c r="U16" t="n">
-        <v>239.3480243885958</v>
+        <v>307.841604589321</v>
       </c>
       <c r="V16" t="n">
-        <v>239.3480243885958</v>
+        <v>307.841604589321</v>
       </c>
       <c r="W16" t="n">
-        <v>239.3480243885958</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="X16" t="n">
-        <v>239.3480243885958</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Y16" t="n">
-        <v>239.3480243885958</v>
+        <v>140.9600000000014</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2580.161715518835</v>
+        <v>2578.759347546201</v>
       </c>
       <c r="C17" t="n">
-        <v>2126.146990020861</v>
+        <v>2124.744622048227</v>
       </c>
       <c r="D17" t="n">
-        <v>1711.662994324043</v>
+        <v>1710.260626351409</v>
       </c>
       <c r="E17" t="n">
-        <v>1303.215227044378</v>
+        <v>1301.812859071744</v>
       </c>
       <c r="F17" t="n">
         <v>894.235804106992</v>
@@ -5521,31 +5521,31 @@
         <v>216.5482970397719</v>
       </c>
       <c r="J17" t="n">
-        <v>675.3654425154241</v>
+        <v>675.365442515424</v>
       </c>
       <c r="K17" t="n">
-        <v>2124.714952431132</v>
+        <v>1415.008586083263</v>
       </c>
       <c r="L17" t="n">
-        <v>3797.935015773518</v>
+        <v>2332.601309399846</v>
       </c>
       <c r="M17" t="n">
-        <v>4280.114215287021</v>
+        <v>2814.780508913349</v>
       </c>
       <c r="N17" t="n">
-        <v>4845.157279159693</v>
+        <v>3379.823572786021</v>
       </c>
       <c r="O17" t="n">
-        <v>5755.312162100437</v>
+        <v>4289.978455726765</v>
       </c>
       <c r="P17" t="n">
-        <v>6591.17949019785</v>
+        <v>5987.717937171561</v>
       </c>
       <c r="Q17" t="n">
-        <v>7048</v>
+        <v>7048.000000000072</v>
       </c>
       <c r="R17" t="n">
-        <v>7048</v>
+        <v>7048.000000000072</v>
       </c>
       <c r="S17" t="n">
         <v>6683.344625183249</v>
@@ -5563,10 +5563,10 @@
         <v>4180.374073908876</v>
       </c>
       <c r="X17" t="n">
-        <v>3583.511963638412</v>
+        <v>3582.109595665777</v>
       </c>
       <c r="Y17" t="n">
-        <v>3067.029708403254</v>
+        <v>3065.627340430619</v>
       </c>
     </row>
     <row r="18">
@@ -5655,7 +5655,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.841604589321</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="C19" t="n">
         <v>140.9600000000014</v>
@@ -5712,19 +5712,19 @@
         <v>307.841604589321</v>
       </c>
       <c r="U19" t="n">
-        <v>307.841604589321</v>
+        <v>155.503537562629</v>
       </c>
       <c r="V19" t="n">
-        <v>307.841604589321</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="W19" t="n">
-        <v>307.841604589321</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="X19" t="n">
-        <v>307.841604589321</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.841604589321</v>
+        <v>140.9600000000014</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>1301.812859071744</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361343582</v>
+        <v>892.8334361343581</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003234031</v>
+        <v>492.332768296037</v>
       </c>
       <c r="H20" t="n">
         <v>140.9600000000014</v>
@@ -5758,31 +5758,31 @@
         <v>216.5482970397719</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154241</v>
+        <v>675.365442515424</v>
       </c>
       <c r="K20" t="n">
-        <v>1713.790319599103</v>
+        <v>1830.673957362106</v>
       </c>
       <c r="L20" t="n">
-        <v>2631.383042915686</v>
+        <v>2748.266680678689</v>
       </c>
       <c r="M20" t="n">
-        <v>4163.230577524017</v>
+        <v>4280.114215287021</v>
       </c>
       <c r="N20" t="n">
-        <v>4728.27364139669</v>
+        <v>4845.157279159693</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337433</v>
+        <v>5755.312162100437</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434847</v>
+        <v>6591.17949019785</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362237069</v>
+        <v>7048.000000000072</v>
       </c>
       <c r="R20" t="n">
-        <v>7048</v>
+        <v>7048.000000000072</v>
       </c>
       <c r="S20" t="n">
         <v>6683.344625183249</v>
@@ -5813,16 +5813,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2285.562842359568</v>
+        <v>2287.112034235905</v>
       </c>
       <c r="C21" t="n">
-        <v>1920.815456050963</v>
+        <v>1922.3646479273</v>
       </c>
       <c r="D21" t="n">
-        <v>1569.363247063384</v>
+        <v>1570.912438939721</v>
       </c>
       <c r="E21" t="n">
-        <v>1223.229815526099</v>
+        <v>1224.779007402436</v>
       </c>
       <c r="F21" t="n">
         <v>881.7120959500346</v>
@@ -5861,28 +5861,28 @@
         <v>5925.707874249717</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.98930637291</v>
+        <v>5571.538498249246</v>
       </c>
       <c r="S21" t="n">
-        <v>5157.673230555787</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T21" t="n">
-        <v>4761.015482194281</v>
+        <v>4762.564674070617</v>
       </c>
       <c r="U21" t="n">
-        <v>4356.971427166838</v>
+        <v>4358.520619043175</v>
       </c>
       <c r="V21" t="n">
-        <v>3938.27378353904</v>
+        <v>3939.822975415377</v>
       </c>
       <c r="W21" t="n">
-        <v>3501.533235145273</v>
+        <v>3503.08242702161</v>
       </c>
       <c r="X21" t="n">
-        <v>3077.42945792771</v>
+        <v>3078.978649804047</v>
       </c>
       <c r="Y21" t="n">
-        <v>2674.003808668989</v>
+        <v>2675.553000545326</v>
       </c>
     </row>
     <row r="22">
@@ -5955,10 +5955,10 @@
         <v>307.841604589321</v>
       </c>
       <c r="W22" t="n">
-        <v>307.841604589321</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="X22" t="n">
-        <v>307.841604589321</v>
+        <v>140.9600000000014</v>
       </c>
       <c r="Y22" t="n">
         <v>140.9600000000014</v>
@@ -5998,28 +5998,28 @@
         <v>1101.367131735719</v>
       </c>
       <c r="K23" t="n">
-        <v>1841.010275303558</v>
+        <v>2550.716641651427</v>
       </c>
       <c r="L23" t="n">
-        <v>3585.390275303575</v>
+        <v>3468.30936496801</v>
       </c>
       <c r="M23" t="n">
-        <v>4067.569474817079</v>
+        <v>3950.488564481512</v>
       </c>
       <c r="N23" t="n">
-        <v>4632.612538689751</v>
+        <v>4845.157279159693</v>
       </c>
       <c r="O23" t="n">
-        <v>5542.767421630495</v>
+        <v>5755.312162100437</v>
       </c>
       <c r="P23" t="n">
-        <v>6378.634749727908</v>
+        <v>6591.17949019785</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048</v>
+        <v>7048.000000000072</v>
       </c>
       <c r="R23" t="n">
-        <v>7048</v>
+        <v>7048.000000000072</v>
       </c>
       <c r="S23" t="n">
         <v>6684.746993155884</v>
@@ -6177,13 +6177,13 @@
         <v>307.841604589321</v>
       </c>
       <c r="R25" t="n">
-        <v>307.841604589321</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="S25" t="n">
-        <v>307.841604589321</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="T25" t="n">
-        <v>307.841604589321</v>
+        <v>239.3480243885958</v>
       </c>
       <c r="U25" t="n">
         <v>239.3480243885958</v>
@@ -6223,7 +6223,7 @@
         <v>892.8334361343453</v>
       </c>
       <c r="G26" t="n">
-        <v>492.3327682960368</v>
+        <v>490.9304003233904</v>
       </c>
       <c r="H26" t="n">
         <v>140.9600000000012</v>
@@ -6232,31 +6232,31 @@
         <v>216.5482970397716</v>
       </c>
       <c r="J26" t="n">
-        <v>1055.002360625184</v>
+        <v>675.3654425154238</v>
       </c>
       <c r="K26" t="n">
-        <v>1794.645504193023</v>
+        <v>1677.76186643002</v>
       </c>
       <c r="L26" t="n">
-        <v>2712.238227509606</v>
+        <v>2595.354589746603</v>
       </c>
       <c r="M26" t="n">
-        <v>3194.417427023109</v>
+        <v>3077.533789260106</v>
       </c>
       <c r="N26" t="n">
-        <v>4845.157279159681</v>
+        <v>4728.273641396678</v>
       </c>
       <c r="O26" t="n">
-        <v>5755.312162100425</v>
+        <v>5638.428524337422</v>
       </c>
       <c r="P26" t="n">
-        <v>6591.179490197838</v>
+        <v>6474.295852434835</v>
       </c>
       <c r="Q26" t="n">
-        <v>7048</v>
+        <v>6931.116362237057</v>
       </c>
       <c r="R26" t="n">
-        <v>7048</v>
+        <v>7048.00000000006</v>
       </c>
       <c r="S26" t="n">
         <v>6683.344625183237</v>
@@ -6366,25 +6366,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.9600000000012</v>
+        <v>239.3480243885955</v>
       </c>
       <c r="C28" t="n">
-        <v>140.9600000000012</v>
+        <v>239.3480243885955</v>
       </c>
       <c r="D28" t="n">
-        <v>140.9600000000012</v>
+        <v>239.3480243885955</v>
       </c>
       <c r="E28" t="n">
-        <v>140.9600000000012</v>
+        <v>239.3480243885955</v>
       </c>
       <c r="F28" t="n">
-        <v>140.9600000000012</v>
+        <v>239.3480243885955</v>
       </c>
       <c r="G28" t="n">
-        <v>140.9600000000012</v>
+        <v>239.3480243885955</v>
       </c>
       <c r="H28" t="n">
-        <v>140.9600000000012</v>
+        <v>239.3480243885955</v>
       </c>
       <c r="I28" t="n">
         <v>140.9600000000012</v>
@@ -6432,10 +6432,10 @@
         <v>307.8416045893208</v>
       </c>
       <c r="X28" t="n">
-        <v>140.9600000000012</v>
+        <v>239.3480243885955</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.9600000000012</v>
+        <v>239.3480243885955</v>
       </c>
     </row>
     <row r="29">
@@ -6457,10 +6457,10 @@
         <v>1301.812859071673</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361342872</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
@@ -6472,28 +6472,28 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>1415.008586083262</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L29" t="n">
-        <v>3159.388586083262</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M29" t="n">
-        <v>3641.567785596765</v>
+        <v>4280.114215286951</v>
       </c>
       <c r="N29" t="n">
-        <v>4206.610849469437</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O29" t="n">
-        <v>5116.765732410181</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P29" t="n">
         <v>6591.17949019778</v>
       </c>
       <c r="Q29" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R29" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S29" t="n">
         <v>6683.344625183179</v>
@@ -6648,28 +6648,28 @@
         <v>307.8416045893197</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
         <v>140.96</v>
@@ -6682,76 +6682,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347546916</v>
+        <v>2580.161715518866</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048942</v>
+        <v>2126.146990020892</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626352124</v>
+        <v>1711.662994324074</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859072459</v>
+        <v>1303.215227044409</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361350729</v>
+        <v>894.2358041070232</v>
       </c>
       <c r="G32" t="n">
-        <v>490.930400324118</v>
+        <v>492.3327682960683</v>
       </c>
       <c r="H32" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397862</v>
+        <v>216.5482970398031</v>
       </c>
       <c r="J32" t="n">
-        <v>1101.367131735733</v>
+        <v>675.3654425154552</v>
       </c>
       <c r="K32" t="n">
-        <v>1936.671378011036</v>
+        <v>1415.008586083294</v>
       </c>
       <c r="L32" t="n">
-        <v>3681.051378011231</v>
+        <v>2332.601309399877</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577524733</v>
+        <v>3301.358424178195</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641397405</v>
+        <v>3866.401488050867</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.428524338149</v>
+        <v>4776.55637099161</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852435563</v>
+        <v>6474.295852436407</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362237784</v>
+        <v>6931.116362238628</v>
       </c>
       <c r="R32" t="n">
-        <v>7048.000000000788</v>
+        <v>7048.000000001632</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183965</v>
+        <v>6684.746993155915</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464792</v>
+        <v>6118.115762436742</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922543704</v>
+        <v>5462.811290515654</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766819639</v>
+        <v>4826.598134791589</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073909591</v>
+        <v>4181.776441881541</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595666492</v>
+        <v>3583.511963638442</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340431334</v>
+        <v>3067.029708403285</v>
       </c>
     </row>
     <row r="33">
@@ -6761,76 +6761,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2287.112034235919</v>
+        <v>2287.112034235936</v>
       </c>
       <c r="C33" t="n">
-        <v>1922.364647927314</v>
+        <v>1922.364647927331</v>
       </c>
       <c r="D33" t="n">
-        <v>1570.912438939735</v>
+        <v>1570.912438939752</v>
       </c>
       <c r="E33" t="n">
-        <v>1224.77900740245</v>
+        <v>1224.779007402467</v>
       </c>
       <c r="F33" t="n">
-        <v>881.7120959500489</v>
+        <v>881.7120959500658</v>
       </c>
       <c r="G33" t="n">
-        <v>555.8565327448564</v>
+        <v>555.8565327448733</v>
       </c>
       <c r="H33" t="n">
-        <v>250.9899876547036</v>
+        <v>250.9899876547205</v>
       </c>
       <c r="I33" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="J33" t="n">
-        <v>558.8475295149374</v>
+        <v>558.8475295149543</v>
       </c>
       <c r="K33" t="n">
-        <v>1250.415257213094</v>
+        <v>1250.415257213111</v>
       </c>
       <c r="L33" t="n">
-        <v>2197.270784374332</v>
+        <v>2197.270784374349</v>
       </c>
       <c r="M33" t="n">
-        <v>3071.633876117191</v>
+        <v>3071.633876117208</v>
       </c>
       <c r="N33" t="n">
-        <v>4014.060204215326</v>
+        <v>4014.060204215343</v>
       </c>
       <c r="O33" t="n">
-        <v>4993.313206182063</v>
+        <v>4993.313206182081</v>
       </c>
       <c r="P33" t="n">
-        <v>5699.926775368551</v>
+        <v>5699.926775368568</v>
       </c>
       <c r="Q33" t="n">
-        <v>5925.707874249731</v>
+        <v>5925.707874249748</v>
       </c>
       <c r="R33" t="n">
-        <v>5569.989306372923</v>
+        <v>5569.989306372941</v>
       </c>
       <c r="S33" t="n">
-        <v>5159.222422432138</v>
+        <v>5159.222422432154</v>
       </c>
       <c r="T33" t="n">
-        <v>4762.564674070632</v>
+        <v>4762.564674070648</v>
       </c>
       <c r="U33" t="n">
-        <v>4358.520619043189</v>
+        <v>4358.520619043205</v>
       </c>
       <c r="V33" t="n">
-        <v>3939.822975415391</v>
+        <v>3939.822975415408</v>
       </c>
       <c r="W33" t="n">
-        <v>3503.082427021624</v>
+        <v>3503.082427021641</v>
       </c>
       <c r="X33" t="n">
-        <v>3078.978649804061</v>
+        <v>3078.978649804078</v>
       </c>
       <c r="Y33" t="n">
-        <v>2675.55300054534</v>
+        <v>2675.553000545357</v>
       </c>
     </row>
     <row r="34">
@@ -6840,76 +6840,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="C34" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="D34" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="E34" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="F34" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="G34" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="H34" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="I34" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="J34" t="n">
-        <v>290.4466099967293</v>
+        <v>290.4466099967462</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893522</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893522</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893522</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893522</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893522</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893522</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893522</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893354</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893354</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893354</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893354</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893354</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893354</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893354</v>
+        <v>140.9600000000326</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000326</v>
       </c>
     </row>
     <row r="35">
@@ -6919,76 +6919,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546916</v>
+        <v>2580.161715518865</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048942</v>
+        <v>2126.146990020891</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324057</v>
+        <v>1711.662994324073</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044392</v>
+        <v>1303.215227044408</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041070063</v>
+        <v>894.2358041070217</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960513</v>
+        <v>492.3327682960668</v>
       </c>
       <c r="H35" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="I35" t="n">
-        <v>140.9600000000158</v>
+        <v>216.5482970398016</v>
       </c>
       <c r="J35" t="n">
-        <v>599.7771454756679</v>
+        <v>675.3654425154538</v>
       </c>
       <c r="K35" t="n">
-        <v>2049.126655391376</v>
+        <v>1415.008586083293</v>
       </c>
       <c r="L35" t="n">
-        <v>3793.50665539157</v>
+        <v>2332.601309399876</v>
       </c>
       <c r="M35" t="n">
-        <v>4275.685854905074</v>
+        <v>2814.780508913379</v>
       </c>
       <c r="N35" t="n">
-        <v>4840.728918777746</v>
+        <v>3379.823572786051</v>
       </c>
       <c r="O35" t="n">
-        <v>5750.88380171849</v>
+        <v>4289.978455726795</v>
       </c>
       <c r="P35" t="n">
-        <v>6586.751129815903</v>
+        <v>5864.602299899459</v>
       </c>
       <c r="Q35" t="n">
-        <v>7043.571639618125</v>
+        <v>6931.116362238558</v>
       </c>
       <c r="R35" t="n">
-        <v>7048.000000000788</v>
+        <v>7048.000000001562</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183965</v>
+        <v>6684.746993155914</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464792</v>
+        <v>6118.115762436741</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922543704</v>
+        <v>5462.811290515653</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766819639</v>
+        <v>4826.598134791589</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073909591</v>
+        <v>4181.77644188154</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595666492</v>
+        <v>3583.511963638442</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340431334</v>
+        <v>3067.029708403284</v>
       </c>
     </row>
     <row r="36">
@@ -6998,76 +6998,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2287.112034235919</v>
+        <v>2287.112034235935</v>
       </c>
       <c r="C36" t="n">
-        <v>1922.364647927314</v>
+        <v>1922.364647927329</v>
       </c>
       <c r="D36" t="n">
-        <v>1570.912438939735</v>
+        <v>1570.912438939751</v>
       </c>
       <c r="E36" t="n">
-        <v>1224.77900740245</v>
+        <v>1224.779007402465</v>
       </c>
       <c r="F36" t="n">
-        <v>881.7120959500489</v>
+        <v>881.7120959500644</v>
       </c>
       <c r="G36" t="n">
-        <v>555.8565327448564</v>
+        <v>555.856532744872</v>
       </c>
       <c r="H36" t="n">
-        <v>250.9899876547036</v>
+        <v>250.9899876547191</v>
       </c>
       <c r="I36" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="J36" t="n">
-        <v>558.8475295149374</v>
+        <v>558.8475295149528</v>
       </c>
       <c r="K36" t="n">
-        <v>1250.415257213094</v>
+        <v>1250.41525721311</v>
       </c>
       <c r="L36" t="n">
-        <v>2197.270784374332</v>
+        <v>2197.270784374348</v>
       </c>
       <c r="M36" t="n">
-        <v>3071.633876117191</v>
+        <v>3071.633876117207</v>
       </c>
       <c r="N36" t="n">
-        <v>4014.060204215326</v>
+        <v>4014.060204215341</v>
       </c>
       <c r="O36" t="n">
-        <v>4993.313206182063</v>
+        <v>4993.31320618208</v>
       </c>
       <c r="P36" t="n">
-        <v>5699.926775368551</v>
+        <v>5699.926775368567</v>
       </c>
       <c r="Q36" t="n">
-        <v>5925.707874249731</v>
+        <v>5925.707874249747</v>
       </c>
       <c r="R36" t="n">
-        <v>5569.989306372923</v>
+        <v>5569.98930637294</v>
       </c>
       <c r="S36" t="n">
-        <v>5159.222422432138</v>
+        <v>5159.222422432154</v>
       </c>
       <c r="T36" t="n">
-        <v>4762.564674070632</v>
+        <v>4762.564674070647</v>
       </c>
       <c r="U36" t="n">
-        <v>4358.520619043189</v>
+        <v>4358.520619043205</v>
       </c>
       <c r="V36" t="n">
-        <v>3939.822975415391</v>
+        <v>3939.822975415406</v>
       </c>
       <c r="W36" t="n">
-        <v>3503.082427021624</v>
+        <v>3503.08242702164</v>
       </c>
       <c r="X36" t="n">
-        <v>3078.978649804061</v>
+        <v>3078.978649804077</v>
       </c>
       <c r="Y36" t="n">
-        <v>2675.55300054534</v>
+        <v>2675.553000545355</v>
       </c>
     </row>
     <row r="37">
@@ -7077,76 +7077,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="C37" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="D37" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="E37" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="F37" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="G37" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="H37" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="I37" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="J37" t="n">
-        <v>290.4466099967293</v>
+        <v>290.4466099967448</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893354</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="W37" t="n">
-        <v>140.9600000000158</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="X37" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.9600000000158</v>
+        <v>140.9600000000312</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518865</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020891</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324073</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044408</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041070217</v>
       </c>
       <c r="G38" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960668</v>
       </c>
       <c r="H38" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970398016</v>
       </c>
       <c r="J38" t="n">
-        <v>1101.367131735718</v>
+        <v>1101.367131735749</v>
       </c>
       <c r="K38" t="n">
-        <v>1841.010275303557</v>
+        <v>2550.716641651456</v>
       </c>
       <c r="L38" t="n">
-        <v>2758.60299862014</v>
+        <v>3468.309364968039</v>
       </c>
       <c r="M38" t="n">
-        <v>3240.782198133642</v>
+        <v>3950.488564481542</v>
       </c>
       <c r="N38" t="n">
-        <v>3805.825262006314</v>
+        <v>4845.157279161182</v>
       </c>
       <c r="O38" t="n">
-        <v>4715.980144947059</v>
+        <v>5755.312162101926</v>
       </c>
       <c r="P38" t="n">
-        <v>5864.602299897899</v>
+        <v>6591.17949019934</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236999</v>
+        <v>7048.000000001562</v>
       </c>
       <c r="R38" t="n">
-        <v>7048</v>
+        <v>7048.000000001562</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155914</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.115762436741</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515653</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791589</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.77644188154</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.511963638442</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403284</v>
       </c>
     </row>
     <row r="39">
@@ -7235,76 +7235,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235935</v>
       </c>
       <c r="C39" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927329</v>
       </c>
       <c r="D39" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939751</v>
       </c>
       <c r="E39" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402465</v>
       </c>
       <c r="F39" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500644</v>
       </c>
       <c r="G39" t="n">
-        <v>555.8565327448407</v>
+        <v>555.856532744872</v>
       </c>
       <c r="H39" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876547191</v>
       </c>
       <c r="I39" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="J39" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149528</v>
       </c>
       <c r="K39" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721311</v>
       </c>
       <c r="L39" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374348</v>
       </c>
       <c r="M39" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117207</v>
       </c>
       <c r="N39" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215341</v>
       </c>
       <c r="O39" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618208</v>
       </c>
       <c r="P39" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368567</v>
       </c>
       <c r="Q39" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249747</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.98930637294</v>
       </c>
       <c r="S39" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432154</v>
       </c>
       <c r="T39" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070647</v>
       </c>
       <c r="U39" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043205</v>
       </c>
       <c r="V39" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415406</v>
       </c>
       <c r="W39" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.08242702164</v>
       </c>
       <c r="X39" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804077</v>
       </c>
       <c r="Y39" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545355</v>
       </c>
     </row>
     <row r="40">
@@ -7314,76 +7314,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="H40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="I40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="J40" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967448</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893197</v>
+        <v>140.9600000000312</v>
       </c>
     </row>
     <row r="41">
@@ -7393,76 +7393,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518865</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020891</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324073</v>
       </c>
       <c r="E41" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044408</v>
       </c>
       <c r="F41" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041070217</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960668</v>
       </c>
       <c r="H41" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="I41" t="n">
-        <v>140.96</v>
+        <v>216.5482970398016</v>
       </c>
       <c r="J41" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154538</v>
       </c>
       <c r="K41" t="n">
-        <v>1901.586501346479</v>
+        <v>1415.008586083293</v>
       </c>
       <c r="L41" t="n">
-        <v>2819.179224663062</v>
+        <v>2332.601309399876</v>
       </c>
       <c r="M41" t="n">
-        <v>3301.358424176565</v>
+        <v>2814.780508913379</v>
       </c>
       <c r="N41" t="n">
-        <v>3866.401488049237</v>
+        <v>3379.823572786051</v>
       </c>
       <c r="O41" t="n">
-        <v>4776.556370989981</v>
+        <v>4289.978455726795</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434777</v>
+        <v>5987.717937171591</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236999</v>
+        <v>6931.116362238558</v>
       </c>
       <c r="R41" t="n">
-        <v>7048</v>
+        <v>7048.000000001562</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625184739</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.115762436741</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515653</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791589</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.77644188154</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.511963638442</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403284</v>
       </c>
     </row>
     <row r="42">
@@ -7472,76 +7472,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359598</v>
       </c>
       <c r="C42" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050993</v>
       </c>
       <c r="D42" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063414</v>
       </c>
       <c r="E42" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526129</v>
       </c>
       <c r="F42" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040737278</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448407</v>
+        <v>555.856532744872</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876547191</v>
       </c>
       <c r="I42" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="J42" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149528</v>
       </c>
       <c r="K42" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721311</v>
       </c>
       <c r="L42" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374348</v>
       </c>
       <c r="M42" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117207</v>
       </c>
       <c r="N42" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215341</v>
       </c>
       <c r="O42" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618208</v>
       </c>
       <c r="P42" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368567</v>
       </c>
       <c r="Q42" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249747</v>
       </c>
       <c r="R42" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.98930637294</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555817</v>
       </c>
       <c r="T42" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.015482194311</v>
       </c>
       <c r="U42" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166868</v>
       </c>
       <c r="V42" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.27378353907</v>
       </c>
       <c r="W42" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145303</v>
       </c>
       <c r="X42" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.42945792774</v>
       </c>
       <c r="Y42" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808669019</v>
       </c>
     </row>
     <row r="43">
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="C43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="D43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="E43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="F43" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="G43" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="H43" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="I43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="J43" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967448</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="N43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="O43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="P43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="Q43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="R43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="S43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="T43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="U43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="V43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="W43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="X43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="Y43" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893508</v>
       </c>
     </row>
     <row r="44">
@@ -7630,55 +7630,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518865</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.146990020891</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324073</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044408</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041070217</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960668</v>
       </c>
       <c r="H44" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970398016</v>
       </c>
       <c r="J44" t="n">
-        <v>938.1187228621225</v>
+        <v>675.3654425154538</v>
       </c>
       <c r="K44" t="n">
-        <v>1677.761866429961</v>
+        <v>1415.008586083293</v>
       </c>
       <c r="L44" t="n">
-        <v>2595.354589746545</v>
+        <v>2332.601309399876</v>
       </c>
       <c r="M44" t="n">
-        <v>3077.533789260047</v>
+        <v>2814.780508913379</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396619</v>
+        <v>3379.823572786051</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337363</v>
+        <v>4289.978455726795</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434777</v>
+        <v>5987.717937171591</v>
       </c>
       <c r="Q44" t="n">
         <v>6931.116362236999</v>
       </c>
       <c r="R44" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S44" t="n">
         <v>6683.344625183179</v>
@@ -7687,19 +7687,19 @@
         <v>6116.713394464006</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515653</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791589</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.77644188154</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.511963638442</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403284</v>
       </c>
     </row>
     <row r="45">
@@ -7709,76 +7709,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2285.562842359567</v>
+        <v>2285.562842359598</v>
       </c>
       <c r="C45" t="n">
-        <v>1920.815456050962</v>
+        <v>1920.815456050993</v>
       </c>
       <c r="D45" t="n">
-        <v>1569.363247063383</v>
+        <v>1569.363247063414</v>
       </c>
       <c r="E45" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402465</v>
       </c>
       <c r="F45" t="n">
-        <v>880.1629040736968</v>
+        <v>881.7120959500644</v>
       </c>
       <c r="G45" t="n">
-        <v>554.3073408685043</v>
+        <v>555.856532744872</v>
       </c>
       <c r="H45" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876547191</v>
       </c>
       <c r="I45" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="J45" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149528</v>
       </c>
       <c r="K45" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.41525721311</v>
       </c>
       <c r="L45" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374348</v>
       </c>
       <c r="M45" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117207</v>
       </c>
       <c r="N45" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215341</v>
       </c>
       <c r="O45" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.31320618208</v>
       </c>
       <c r="P45" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368567</v>
       </c>
       <c r="Q45" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249747</v>
       </c>
       <c r="R45" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.98930637294</v>
       </c>
       <c r="S45" t="n">
-        <v>5157.673230555786</v>
+        <v>5157.673230555817</v>
       </c>
       <c r="T45" t="n">
-        <v>4761.01548219428</v>
+        <v>4761.015482194311</v>
       </c>
       <c r="U45" t="n">
-        <v>4356.971427166837</v>
+        <v>4356.971427166868</v>
       </c>
       <c r="V45" t="n">
-        <v>3938.273783539039</v>
+        <v>3938.27378353907</v>
       </c>
       <c r="W45" t="n">
-        <v>3501.533235145273</v>
+        <v>3501.533235145303</v>
       </c>
       <c r="X45" t="n">
-        <v>3077.429457927709</v>
+        <v>3077.42945792774</v>
       </c>
       <c r="Y45" t="n">
-        <v>2674.003808668988</v>
+        <v>2674.003808669019</v>
       </c>
     </row>
     <row r="46">
@@ -7788,76 +7788,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="C46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="D46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="E46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="F46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="G46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="H46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="I46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="J46" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967448</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893197</v>
+        <v>307.8416045893508</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="W46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="X46" t="n">
-        <v>307.8416045893197</v>
+        <v>140.9600000000312</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000312</v>
       </c>
     </row>
   </sheetData>
@@ -7981,34 +7981,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>265.4073538855554</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>685.9089394606111</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>176.4768357649465</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8221,19 +8221,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
-        <v>835.1386633164047</v>
+        <v>332.9552028337775</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>644.9963936259203</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>835.1386633164047</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8476,13 +8476,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q8" t="n">
-        <v>615.8520732695737</v>
+        <v>609.5571242689093</v>
       </c>
       <c r="R8" t="n">
-        <v>205.6211561220156</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8695,25 +8695,25 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>96.6273764719856</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>835.1386633164045</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>265.4073538856244</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J14" t="n">
         <v>430.3047365861567</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L14" t="n">
-        <v>433.9782470873729</v>
+        <v>409.307018025534</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>176.4768357656695</v>
@@ -9172,10 +9172,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>763.2599394200033</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9187,10 +9187,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>609.5571242689791</v>
       </c>
       <c r="R17" t="n">
         <v>176.4768357656695</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>301.7997308240804</v>
+        <v>419.8640113927703</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,16 +9646,16 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
-        <v>835.1386633166003</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>332.9552028338469</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.6916570403453</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>176.4768357656695</v>
@@ -9880,10 +9880,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
-        <v>383.4716344543033</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>265.4073538856132</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,13 +10120,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
-        <v>835.1386633165835</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>763.2599394199343</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>644.9963936264498</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10354,16 +10354,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>96.62737647218501</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>835.1386633167795</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>491.4928437018325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10588,16 +10588,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>835.1386633167795</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10609,13 +10609,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>746.2187031063131</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R35" t="n">
-        <v>180.9499270612882</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10840,19 +10840,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>332.9552028353213</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>315.9139665186124</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>567.8446588919071</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>870.5779326741233</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>491.4928437017635</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -11302,7 +11302,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J44" t="n">
-        <v>265.4073538855554</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11314,16 +11314,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>491.4928437001879</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23275,13 +23275,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.388344292907561</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.388344292776765</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.533699957573162</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1.533699957573447</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23442,7 +23442,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O13" t="n">
-        <v>200.2495754180018</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P13" t="n">
         <v>368.8061924102448</v>
@@ -23481,7 +23481,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W13" t="n">
         <v>226.3728098387097</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.388344292908982</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23566,7 +23566,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.388344292907732</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23679,7 +23679,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23688,7 +23688,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M16" t="n">
         <v>107.6476277959926</v>
@@ -23703,7 +23703,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q16" t="n">
-        <v>469.2755452666264</v>
+        <v>505.228266425598</v>
       </c>
       <c r="R16" t="n">
         <v>608.1413738827905</v>
@@ -23721,7 +23721,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.388344292907561</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23803,7 +23803,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.388344292907732</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C19" t="n">
-        <v>107.5124581046183</v>
+        <v>272.7252466480447</v>
       </c>
       <c r="D19" t="n">
         <v>285.5362180555555</v>
@@ -23952,10 +23952,10 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U19" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>199.1703102162162</v>
+        <v>184.7722080292149</v>
       </c>
       <c r="W19" t="n">
         <v>226.3728098387097</v>
@@ -23989,10 +23989,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.388344292907504</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292907504</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24065,43 +24065,43 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.53369995757339</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24195,13 +24195,13 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W22" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X22" t="n">
         <v>247.4436454301076</v>
       </c>
       <c r="Y22" t="n">
-        <v>122.252564306036</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="23">
@@ -24417,7 +24417,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R25" t="n">
-        <v>608.1413738827905</v>
+        <v>540.3327294840725</v>
       </c>
       <c r="S25" t="n">
         <v>316.45975839138</v>
@@ -24426,7 +24426,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U25" t="n">
-        <v>83.00604195770714</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
         <v>199.1703102162162</v>
@@ -24463,10 +24463,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.388344292919896</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24627,7 +24627,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I28" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24672,7 +24672,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X28" t="n">
-        <v>82.23085688668115</v>
+        <v>179.6350010313895</v>
       </c>
       <c r="Y28" t="n">
         <v>287.4653528494624</v>
@@ -24700,10 +24700,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.388344292976399</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q31" t="n">
-        <v>505.228266425598</v>
+        <v>340.0154778821716</v>
       </c>
       <c r="R31" t="n">
         <v>608.1413738827905</v>
@@ -24912,7 +24912,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y31" t="n">
-        <v>122.2525643060359</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="32">
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.388344292214015</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.388344291395413</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>1.533699957573617</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R34" t="n">
-        <v>608.1413738827905</v>
+        <v>442.9285853393641</v>
       </c>
       <c r="S34" t="n">
         <v>316.45975839138</v>
@@ -25149,7 +25149,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y34" t="n">
-        <v>122.252564306036</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="35">
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.388344292214072</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.388344291462943</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>1.533699957573617</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25380,10 +25380,10 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X37" t="n">
-        <v>247.4436454301076</v>
+        <v>82.23085688668118</v>
       </c>
       <c r="Y37" t="n">
         <v>287.4653528494624</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.388344291462943</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>121.9010117936522</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C40" t="n">
         <v>272.7252466480447</v>
@@ -25617,7 +25617,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528331</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.388344291462545</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1.533699957573333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F43" t="n">
-        <v>274.3828559677419</v>
+        <v>109.1700674243156</v>
       </c>
       <c r="G43" t="n">
         <v>242.4092826775956</v>
@@ -25812,7 +25812,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25827,7 +25827,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>100.2122833319831</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O43" t="n">
         <v>268.0582198167198</v>
@@ -25870,7 +25870,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.388344293007322</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1.533699957573162</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25967,7 +25967,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278982</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
@@ -26097,7 +26097,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y46" t="n">
-        <v>122.2525643060359</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16635.20169611334</v>
+        <v>1366403.055422136</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33181.61982254663</v>
+        <v>2720233.373779674</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49728.03794897989</v>
+        <v>4074063.692137214</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68560.63564458874</v>
+        <v>5286709.860492387</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87393.23334019756</v>
+        <v>6499356.028847559</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106225.8310358064</v>
+        <v>7712002.197202724</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125058.4287314152</v>
+        <v>8924648.365557885</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143891.026427024</v>
+        <v>10137294.53391305</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162723.6241226328</v>
+        <v>11349940.70226821</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181556.2218182416</v>
+        <v>12562586.87062336</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200388.8195138505</v>
+        <v>13775233.03897866</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219221.4172094593</v>
+        <v>14987879.20733396</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238054.0149050683</v>
+        <v>16200525.37568927</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256886.6126006774</v>
+        <v>17413171.54404457</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275719.2102962863</v>
+        <v>18625817.71239974</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245013</v>
+        <v>850079.5022245016</v>
       </c>
       <c r="C2" t="n">
         <v>850079.5022245017</v>
       </c>
       <c r="D2" t="n">
-        <v>850079.5022245013</v>
+        <v>850079.5022245017</v>
       </c>
       <c r="E2" t="n">
-        <v>761428.9894323233</v>
+        <v>761428.9894323163</v>
       </c>
       <c r="F2" t="n">
         <v>761428.9894323162</v>
       </c>
       <c r="G2" t="n">
-        <v>761428.9894323163</v>
+        <v>761428.9894323162</v>
       </c>
       <c r="H2" t="n">
-        <v>761428.9894323163</v>
+        <v>761428.9894323162</v>
       </c>
       <c r="I2" t="n">
-        <v>761428.989432316</v>
+        <v>761428.9894323162</v>
       </c>
       <c r="J2" t="n">
-        <v>761428.9894323156</v>
+        <v>761428.9894323155</v>
       </c>
       <c r="K2" t="n">
-        <v>761428.9894323125</v>
+        <v>761428.9894323122</v>
       </c>
       <c r="L2" t="n">
-        <v>761428.9894323533</v>
+        <v>761428.9894323972</v>
       </c>
       <c r="M2" t="n">
-        <v>761428.9894323532</v>
+        <v>761428.9894323937</v>
       </c>
       <c r="N2" t="n">
-        <v>761428.9894323123</v>
+        <v>761428.9894323939</v>
       </c>
       <c r="O2" t="n">
-        <v>761428.9894323128</v>
+        <v>761428.9894323939</v>
       </c>
       <c r="P2" t="n">
-        <v>761428.9894323122</v>
+        <v>761428.9894323109</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2044698.999999937</v>
+        <v>2044699</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>6.162736099213362e-09</v>
       </c>
       <c r="F3" t="n">
-        <v>6.915070116519928e-08</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,13 +26395,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620223.9999999361</v>
+        <v>620223.9999999991</v>
       </c>
       <c r="K3" t="n">
         <v>-3.455607493718465e-09</v>
       </c>
       <c r="L3" t="n">
-        <v>6.915070116519928e-08</v>
+        <v>1.434236764907837e-07</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26423,28 +26423,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.80382166385</v>
+        <v>89075.80382163514</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276718262</v>
+        <v>88773.85276715399</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209724944</v>
+        <v>88471.49209722099</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850386</v>
+        <v>13783.46259850331</v>
       </c>
       <c r="F4" t="n">
         <v>13783.46259850331</v>
       </c>
       <c r="G4" t="n">
-        <v>13783.46259850331</v>
+        <v>13783.4625985033</v>
       </c>
       <c r="H4" t="n">
         <v>13783.46259850331</v>
       </c>
       <c r="I4" t="n">
-        <v>13783.4625985033</v>
+        <v>13783.46259850331</v>
       </c>
       <c r="J4" t="n">
         <v>13783.46259850326</v>
@@ -26453,19 +26453,19 @@
         <v>13783.46259850302</v>
       </c>
       <c r="L4" t="n">
-        <v>13783.46259850621</v>
+        <v>13783.46259850963</v>
       </c>
       <c r="M4" t="n">
-        <v>13783.46259850621</v>
+        <v>13783.46259850935</v>
       </c>
       <c r="N4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850935</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850935</v>
       </c>
       <c r="P4" t="n">
-        <v>13783.46259850302</v>
+        <v>13783.46259850289</v>
       </c>
     </row>
     <row r="5">
@@ -26475,16 +26475,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172606.9999999891</v>
+        <v>172607</v>
       </c>
       <c r="C5" t="n">
-        <v>172606.9999999891</v>
+        <v>172607</v>
       </c>
       <c r="D5" t="n">
-        <v>172606.9999999891</v>
+        <v>172607</v>
       </c>
       <c r="E5" t="n">
-        <v>138979.3999999891</v>
+        <v>138979.4000000011</v>
       </c>
       <c r="F5" t="n">
         <v>138979.4000000011</v>
@@ -26505,19 +26505,19 @@
         <v>138979.4</v>
       </c>
       <c r="L5" t="n">
-        <v>138979.400000012</v>
+        <v>138979.4000000248</v>
       </c>
       <c r="M5" t="n">
-        <v>138979.400000012</v>
+        <v>138979.4000000237</v>
       </c>
       <c r="N5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000237</v>
       </c>
       <c r="O5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000237</v>
       </c>
       <c r="P5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000237</v>
       </c>
     </row>
     <row r="6">
@@ -26527,49 +26527,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1456302.301597089</v>
+        <v>-1456302.301597133</v>
       </c>
       <c r="C6" t="n">
-        <v>588698.6494573299</v>
+        <v>588698.6494573477</v>
       </c>
       <c r="D6" t="n">
-        <v>589001.0101272627</v>
+        <v>589001.0101272807</v>
       </c>
       <c r="E6" t="n">
-        <v>608666.1268338303</v>
+        <v>608666.1268338057</v>
       </c>
       <c r="F6" t="n">
-        <v>608666.1268337426</v>
+        <v>608666.1268338118</v>
       </c>
       <c r="G6" t="n">
-        <v>608666.1268338119</v>
+        <v>608666.1268338118</v>
       </c>
       <c r="H6" t="n">
-        <v>608666.1268338119</v>
+        <v>608666.1268338118</v>
       </c>
       <c r="I6" t="n">
-        <v>608666.1268338116</v>
+        <v>608666.1268338118</v>
       </c>
       <c r="J6" t="n">
-        <v>-11557.87316612467</v>
+        <v>-11557.87316618777</v>
       </c>
       <c r="K6" t="n">
-        <v>608666.1268338147</v>
+        <v>608666.1268338143</v>
       </c>
       <c r="L6" t="n">
-        <v>608666.126833766</v>
+        <v>608666.1268337193</v>
       </c>
       <c r="M6" t="n">
-        <v>608666.126833835</v>
+        <v>608666.1268338606</v>
       </c>
       <c r="N6" t="n">
-        <v>608666.1268338093</v>
+        <v>608666.1268338609</v>
       </c>
       <c r="O6" t="n">
-        <v>608666.1268338098</v>
+        <v>608666.1268338609</v>
       </c>
       <c r="P6" t="n">
-        <v>608666.1268338092</v>
+        <v>608666.1268337844</v>
       </c>
     </row>
   </sheetData>
@@ -26919,49 +26919,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1761.999999999822</v>
+        <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>1761.999999999822</v>
+        <v>1762</v>
       </c>
       <c r="D4" t="n">
-        <v>1761.999999999822</v>
+        <v>1762</v>
       </c>
       <c r="E4" t="n">
-        <v>1761.999999999822</v>
+        <v>1762.000000000018</v>
       </c>
       <c r="F4" t="n">
-        <v>1762</v>
+        <v>1762.000000000018</v>
       </c>
       <c r="G4" t="n">
-        <v>1762</v>
+        <v>1762.000000000018</v>
       </c>
       <c r="H4" t="n">
-        <v>1762</v>
+        <v>1762.000000000018</v>
       </c>
       <c r="I4" t="n">
-        <v>1762</v>
+        <v>1762.000000000018</v>
       </c>
       <c r="J4" t="n">
-        <v>1762</v>
+        <v>1762.000000000015</v>
       </c>
       <c r="K4" t="n">
         <v>1762</v>
       </c>
       <c r="L4" t="n">
-        <v>1762.000000000197</v>
+        <v>1762.000000000408</v>
       </c>
       <c r="M4" t="n">
-        <v>1762.000000000197</v>
+        <v>1762.00000000039</v>
       </c>
       <c r="N4" t="n">
-        <v>1762</v>
+        <v>1762.00000000039</v>
       </c>
       <c r="O4" t="n">
-        <v>1762</v>
+        <v>1762.00000000039</v>
       </c>
       <c r="P4" t="n">
-        <v>1762</v>
+        <v>1762.00000000039</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27141,37 +27141,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1761.999999999829</v>
+        <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.040550028185614e-11</v>
       </c>
       <c r="F4" t="n">
-        <v>1.893485828556798e-10</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1761.999999999825</v>
+        <v>1762</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-7.449642501094125e-12</v>
       </c>
       <c r="L4" t="n">
-        <v>1.893485828556798e-10</v>
+        <v>4.003513536669991e-10</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1761.999999999822</v>
+        <v>1762</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.750777300912887e-11</v>
       </c>
       <c r="N4" t="n">
-        <v>1.964508555829525e-10</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27520,10 +27520,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="G2" t="n">
-        <v>1.388344293669945</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.533699957573162</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27690,7 +27690,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
-        <v>151.1650359809837</v>
+        <v>67.62479437236371</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27717,7 +27717,7 @@
         <v>400</v>
       </c>
       <c r="S4" t="n">
-        <v>316.45975839138</v>
+        <v>400</v>
       </c>
       <c r="T4" t="n">
         <v>198.7676812603561</v>
@@ -27799,7 +27799,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.388344293670343</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27814,7 +27814,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1.388344292976342</v>
       </c>
     </row>
     <row r="6">
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="H6" t="n">
-        <v>1.533699957573276</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27927,10 +27927,10 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J7" t="n">
-        <v>151.1650359809838</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="L7" t="n">
         <v>31.85592323974635</v>
@@ -27994,13 +27994,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.388344293669945</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28109,13 +28109,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.7441891675247</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C10" t="n">
         <v>272.7252466480447</v>
@@ -28200,7 +28200,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V10" t="n">
-        <v>199.1703102162162</v>
+        <v>350.3353461971998</v>
       </c>
       <c r="W10" t="n">
         <v>226.3728098387097</v>
@@ -28209,7 +28209,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y10" t="n">
-        <v>400</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
     <row r="11">
@@ -34825,34 +34825,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>747.1142864321608</v>
+        <v>1012.521640317716</v>
       </c>
       <c r="L2" t="n">
-        <v>926.8613366834174</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M2" t="n">
-        <v>1172.958635938897</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
-        <v>-7.182391799665998e-10</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34986,7 +34986,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>302.1616117352398</v>
+        <v>218.6213701266198</v>
       </c>
       <c r="K4" t="n">
         <v>17.57070160869296</v>
@@ -35013,7 +35013,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>83.54024160861997</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -35065,19 +35065,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K5" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L5" t="n">
-        <v>1761.999999999822</v>
+        <v>1259.816539517195</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
-        <v>1215.746963194276</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
         <v>919.3483666068121</v>
@@ -35223,10 +35223,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K7" t="n">
-        <v>17.57070160869296</v>
+        <v>168.7357375896766</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35305,10 +35305,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>1761.999999999822</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35320,13 +35320,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q8" t="n">
-        <v>1077.286931655656</v>
+        <v>1070.991982654991</v>
       </c>
       <c r="R8" t="n">
-        <v>29.1443203563461</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35436,7 +35436,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.63038883044603</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -35496,7 +35496,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -35505,7 +35505,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>112.5346471505376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -35539,25 +35539,25 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>843.7416629041463</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L11" t="n">
-        <v>1761.999999999822</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O11" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>844.3104324216301</v>
+        <v>1109.717786307255</v>
       </c>
       <c r="Q11" t="n">
         <v>461.4348583860824</v>
@@ -35773,16 +35773,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K14" t="n">
-        <v>747.1142864321607</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L14" t="n">
-        <v>1360.83958377079</v>
+        <v>1336.168354708951</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35797,7 +35797,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q14" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -36016,10 +36016,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
-        <v>1690.121276103421</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36031,10 +36031,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.4348583860824</v>
+        <v>1070.991982655062</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36253,7 +36253,7 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>1048.914017256241</v>
+        <v>1166.978297824931</v>
       </c>
       <c r="L20" t="n">
         <v>926.8613366834172</v>
@@ -36274,7 +36274,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36490,16 +36490,16 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K23" t="n">
-        <v>747.1142864321607</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L23" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
-        <v>570.7505695683558</v>
+        <v>903.7057724022026</v>
       </c>
       <c r="O23" t="n">
         <v>919.3483666068121</v>
@@ -36508,7 +36508,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
-        <v>676.1265154264277</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36724,10 +36724,10 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J26" t="n">
-        <v>846.9232965509216</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>747.1142864321607</v>
+        <v>1012.521640317774</v>
       </c>
       <c r="L26" t="n">
         <v>926.8613366834172</v>
@@ -36748,7 +36748,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36964,13 +36964,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L29" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M29" t="n">
-        <v>487.0496964782857</v>
+        <v>1250.30963589822</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
@@ -36979,7 +36979,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>1489.30682604808</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
         <v>461.4348583860824</v>
@@ -37198,16 +37198,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>843.741662904346</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L32" t="n">
-        <v>1762.000000000197</v>
+        <v>926.8613366834168</v>
       </c>
       <c r="M32" t="n">
-        <v>487.0496964782857</v>
+        <v>978.5425401801181</v>
       </c>
       <c r="N32" t="n">
         <v>570.7505695683558</v>
@@ -37216,7 +37216,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q32" t="n">
         <v>461.4348583860824</v>
@@ -37432,16 +37432,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L35" t="n">
-        <v>1762.000000000197</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37453,13 +37453,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>844.3104324216301</v>
+        <v>1590.529135527943</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R35" t="n">
-        <v>4.473091295618691</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37675,7 +37675,7 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K38" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L38" t="n">
         <v>926.861336683417</v>
@@ -37684,19 +37684,19 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
-        <v>570.7505695683558</v>
+        <v>903.7057724036771</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>1160.224398940243</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37906,16 +37906,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>1314.958945324068</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L41" t="n">
-        <v>926.8613366834172</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37930,7 +37930,7 @@
         <v>1714.888365095753</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.4348583860824</v>
+        <v>952.9277020878458</v>
       </c>
       <c r="R41" t="n">
         <v>118.0642805686905</v>
@@ -38146,28 +38146,28 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J44" t="n">
-        <v>728.8590159821737</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
         <v>747.1142864321607</v>
       </c>
       <c r="L44" t="n">
-        <v>926.8613366834172</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O44" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.4348583860824</v>
+        <v>952.9277020862703</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
